--- a/2DPlatformControlSystem/Configure/丁玉玲/cTest配置文件/0.2g/-0.2g_-0.5deg.xlsx
+++ b/2DPlatformControlSystem/Configure/丁玉玲/cTest配置文件/0.2g/-0.2g_-0.5deg.xlsx
@@ -2,9 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanfa\Desktop\PST50_51_CFG\cTest配置文件\0.2g\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="配置文件" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">配置文件!$A$1:$B$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -25,136 +25,82 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>配置项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>判断值</t>
   </si>
   <si>
     <t>运行模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrdControl</t>
+  </si>
+  <si>
+    <t>表示肯定</t>
   </si>
   <si>
     <t>线性运动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示肯定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>表示否定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>延迟时间(s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性运行设置为1，属性有效。</t>
   </si>
   <si>
     <t>加速时间(s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>减速时间(s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>最大速度(mm/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>匀速时间(s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>转动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转动设置为1，属性有效。</t>
   </si>
   <si>
     <t>最大速度(deg/s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>转动角度(deg)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>线性运行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设置为1，属性有效。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>转动</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设置为1，属性有效。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>数据采集</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>扫描间隔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>采集频率=
 采集量/扫描间隔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集量</t>
   </si>
   <si>
     <t>取平均数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存文件类型是XLS时，属性有效</t>
   </si>
   <si>
     <t>是否作图1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是否作图2</t>
@@ -167,126 +113,30 @@
   </si>
   <si>
     <t>表头名称1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH_1</t>
   </si>
   <si>
     <t>表头名称2</t>
   </si>
   <si>
+    <t>CH_2</t>
+  </si>
+  <si>
     <t>表头名称3</t>
   </si>
   <si>
+    <t>CH_3</t>
+  </si>
+  <si>
     <t>表头名称4</t>
   </si>
   <si>
-    <t>CH_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH_2</t>
-  </si>
-  <si>
-    <t>CH_3</t>
+    <t>CH_4</t>
   </si>
   <si>
     <t>实验条件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存文件类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存文件名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不用加后缀名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>填写</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>XLS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>或者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DAT</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>保存文件类型是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>XLS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>时，属性有效</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>XLS</t>
-  </si>
-  <si>
-    <t>TrdControl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.2g_-0.5deg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Acc Time=0.5s DecTime=0.4s
@@ -296,15 +146,32 @@
 MaxSpeed=-0.5deg/s
 Scan Intervals=200
 Data Size=5000000
-T=25.9 RH=73%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+T=19.7 RH=25%</t>
+  </si>
+  <si>
+    <t>保存文件类型</t>
+  </si>
+  <si>
+    <t>XLS</t>
+  </si>
+  <si>
+    <t>填写XLS或者DAT</t>
+  </si>
+  <si>
+    <t>保存文件名</t>
+  </si>
+  <si>
+    <t>-0.2g_-0.5deg</t>
+  </si>
+  <si>
+    <t>不用加后缀名</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,14 +189,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -381,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -417,39 +276,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -465,34 +299,26 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,7 +382,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -833,314 +659,313 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="15.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7">
+        <v>-1000</v>
+      </c>
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="8">
+        <v>6</v>
+      </c>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="9">
+        <v>200</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="9">
+        <v>5000000</v>
+      </c>
+      <c r="C17" s="15"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="9">
+        <v>100</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0</v>
+      </c>
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0</v>
+      </c>
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0</v>
+      </c>
+      <c r="C21" s="15"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0</v>
+      </c>
+      <c r="C22" s="15"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="15"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="15"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="15"/>
+    </row>
+    <row r="27" spans="1:3" ht="108" customHeight="1">
+      <c r="A27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="15"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="B28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="G2" s="11">
-        <v>1</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="C6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="8">
-        <v>-1000</v>
-      </c>
-      <c r="C7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="C8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="9">
-        <v>0</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="C12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="9">
-        <v>6</v>
-      </c>
-      <c r="C14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="10">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="10">
-        <v>200</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="10">
-        <v>0</v>
-      </c>
-      <c r="C17" s="20"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="10">
-        <v>5000000</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="10">
-        <v>1</v>
-      </c>
-      <c r="C19" s="16"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="10">
-        <v>1</v>
-      </c>
-      <c r="C20" s="16"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="10">
-        <v>0</v>
-      </c>
-      <c r="C21" s="16"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="10">
-        <v>0</v>
-      </c>
-      <c r="C22" s="16"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="16"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="16"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="16"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="16"/>
-    </row>
-    <row r="27" spans="1:3" ht="108" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="14" t="s">
+      <c r="B29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="16"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>36</v>
-      </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" autoFilter="0" pivotTables="0"/>
-  <dataConsolidate/>
   <mergeCells count="4">
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C10:C14"/>
@@ -1189,16 +1014,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:B21">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B19:B21">
       <formula1>$G$2:$G$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B28">
       <formula1>"DAT,XLS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B22">
       <formula1>"1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B9 B15">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B3 B9 B15">
       <formula1>"1,0"</formula1>
     </dataValidation>
   </dataValidations>
